--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N2">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q2">
-        <v>47.36287051723967</v>
+        <v>10.03768561230778</v>
       </c>
       <c r="R2">
-        <v>426.2658346551571</v>
+        <v>90.33917051076999</v>
       </c>
       <c r="S2">
-        <v>0.222084871585611</v>
+        <v>0.05320507057095002</v>
       </c>
       <c r="T2">
-        <v>0.222084871585611</v>
+        <v>0.05320507057095003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q3">
-        <v>21.08499690866901</v>
+        <v>21.70522249352066</v>
       </c>
       <c r="R3">
-        <v>189.764972178021</v>
+        <v>195.347002441686</v>
       </c>
       <c r="S3">
-        <v>0.09886771599158699</v>
+        <v>0.1150492194246389</v>
       </c>
       <c r="T3">
-        <v>0.09886771599158699</v>
+        <v>0.115049219424639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N4">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q4">
-        <v>10.921862635767</v>
+        <v>11.05111075588044</v>
       </c>
       <c r="R4">
-        <v>98.29676372190301</v>
+        <v>99.459996802924</v>
       </c>
       <c r="S4">
-        <v>0.05121269961999256</v>
+        <v>0.05857676264865817</v>
       </c>
       <c r="T4">
-        <v>0.05121269961999258</v>
+        <v>0.05857676264865819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N5">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O5">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P5">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q5">
-        <v>23.34694094980489</v>
+        <v>4.806565422637778</v>
       </c>
       <c r="R5">
-        <v>210.122468548244</v>
+        <v>43.25908880374</v>
       </c>
       <c r="S5">
-        <v>0.109473989353474</v>
+        <v>0.0254773522894323</v>
       </c>
       <c r="T5">
-        <v>0.109473989353474</v>
+        <v>0.0254773522894323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N6">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q6">
         <v>10.39358831881467</v>
       </c>
       <c r="R6">
-        <v>93.54229486933201</v>
+        <v>93.542294869332</v>
       </c>
       <c r="S6">
-        <v>0.04873561720161104</v>
+        <v>0.05509154414139866</v>
       </c>
       <c r="T6">
-        <v>0.04873561720161104</v>
+        <v>0.05509154414139866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N7">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q7">
-        <v>5.383797038364</v>
+        <v>5.291846038276445</v>
       </c>
       <c r="R7">
-        <v>48.454173345276</v>
+        <v>47.626614344488</v>
       </c>
       <c r="S7">
-        <v>0.02524466656793642</v>
+        <v>0.02804959756578472</v>
       </c>
       <c r="T7">
-        <v>0.02524466656793642</v>
+        <v>0.02804959756578472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H8">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N8">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O8">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P8">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q8">
-        <v>56.55318738471189</v>
+        <v>29.40756323516889</v>
       </c>
       <c r="R8">
-        <v>508.978686462407</v>
+        <v>264.66806911652</v>
       </c>
       <c r="S8">
-        <v>0.2651783395079306</v>
+        <v>0.1558757205274842</v>
       </c>
       <c r="T8">
-        <v>0.2651783395079306</v>
+        <v>0.1558757205274842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H9">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N9">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O9">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P9">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q9">
-        <v>25.17634104858567</v>
+        <v>63.59012701383733</v>
       </c>
       <c r="R9">
-        <v>226.587069437271</v>
+        <v>572.311143124536</v>
       </c>
       <c r="S9">
-        <v>0.1180520607748113</v>
+        <v>0.3370614827025877</v>
       </c>
       <c r="T9">
-        <v>0.1180520607748113</v>
+        <v>0.3370614827025877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H10">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N10">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O10">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P10">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q10">
-        <v>13.041146735517</v>
+        <v>32.37661059775822</v>
       </c>
       <c r="R10">
-        <v>117.370320619653</v>
+        <v>291.389495379824</v>
       </c>
       <c r="S10">
-        <v>0.06115003939704618</v>
+        <v>0.1716132501290653</v>
       </c>
       <c r="T10">
-        <v>0.0611500393970462</v>
+        <v>0.1716132501290653</v>
       </c>
     </row>
   </sheetData>
